--- a/webprojekt_marko_nimit/webprojekt_marko_nimit/Tasks_Marko_Nimit.xlsx
+++ b/webprojekt_marko_nimit/webprojekt_marko_nimit/Tasks_Marko_Nimit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB0E83-206D-485E-AC5F-BB1BD66C55B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528F3C5E-5E5D-40AA-B6B7-9A94622A58C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Als Benutzer soll man ein angemessenes Layout sehen</t>
   </si>
@@ -52,9 +52,6 @@
     <t>In Bearbeitung</t>
   </si>
   <si>
-    <t>Layout für die Hauptseite erzeugen</t>
-  </si>
-  <si>
     <t>Logo erstellen</t>
   </si>
   <si>
@@ -62,6 +59,48 @@
   </si>
   <si>
     <t>Fotos auswählen + Ordner pic erstellen</t>
+  </si>
+  <si>
+    <t>Layout erzeugen</t>
+  </si>
+  <si>
+    <t>Abgeschlossen</t>
+  </si>
+  <si>
+    <t>geplante Endzeit</t>
+  </si>
+  <si>
+    <t>4.Task</t>
+  </si>
+  <si>
+    <t>Klasse Dogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller + View Dogs </t>
+  </si>
+  <si>
+    <t>5.Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klasse User </t>
+  </si>
+  <si>
+    <t>Registrierung + Login View</t>
+  </si>
+  <si>
+    <t>UserController</t>
+  </si>
+  <si>
+    <t>6.Task</t>
+  </si>
+  <si>
+    <t>7.Task</t>
+  </si>
+  <si>
+    <t>8.Task</t>
+  </si>
+  <si>
+    <t>Nimit Singh</t>
   </si>
 </sst>
 </file>
@@ -90,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -171,12 +216,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,14 +509,14 @@
   <dimension ref="A4:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -486,16 +535,18 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="11"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="4" t="s">
         <v>2</v>
       </c>
@@ -509,16 +560,15 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="11"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
@@ -529,15 +579,17 @@
       <c r="C8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="11"/>
+      <c r="D8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="1">
+        <v>43851</v>
+      </c>
       <c r="K8" s="11" t="s">
         <v>7</v>
       </c>
@@ -545,7 +597,7 @@
         <v>43847</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -554,21 +606,25 @@
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="1">
+        <v>43851</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1">
+        <v>43847</v>
+      </c>
       <c r="M9" s="14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -577,28 +633,34 @@
       <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="11"/>
+      <c r="D10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="1">
+        <v>43851</v>
+      </c>
       <c r="K10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="1">
+        <v>43847</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
       <c r="L11" s="1"/>
       <c r="M11" s="10"/>
     </row>
@@ -620,13 +682,13 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -635,85 +697,135 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="1">
+        <v>43858</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="12"/>
+      <c r="M14" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="1">
+        <v>43858</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="1">
+        <v>43858</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="1">
+        <v>43858</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="1">
+        <v>43858</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="12"/>
+      <c r="M18" s="15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="1"/>
@@ -722,12 +834,12 @@
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="1"/>
@@ -736,12 +848,12 @@
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="12"/>
       <c r="K21" s="11"/>
       <c r="L21" s="1"/>
@@ -750,12 +862,12 @@
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -764,12 +876,12 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="1"/>
@@ -792,13 +904,13 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="7"/>
@@ -812,12 +924,12 @@
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="1"/>
@@ -826,12 +938,12 @@
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="1"/>
@@ -840,12 +952,12 @@
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="1"/>
@@ -854,12 +966,12 @@
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -881,13 +993,13 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -896,12 +1008,12 @@
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="1"/>
@@ -910,12 +1022,12 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="1"/>
@@ -924,12 +1036,12 @@
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="1"/>
@@ -938,12 +1050,12 @@
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="1"/>
@@ -952,12 +1064,12 @@
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -966,12 +1078,12 @@
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="1"/>
@@ -980,12 +1092,12 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="1"/>
@@ -1021,13 +1133,13 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="7"/>
@@ -1036,12 +1148,12 @@
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="1"/>
@@ -1050,12 +1162,12 @@
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="1"/>
@@ -1064,12 +1176,12 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="1"/>
@@ -1078,12 +1190,12 @@
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -1212,20 +1324,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C6:I6"/>
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="D20:I20"/>
@@ -1242,11 +1345,20 @@
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="C25:I25"/>
     <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="D26:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
